--- a/App_Data/Template/ImportBrokerage.xlsx
+++ b/App_Data/Template/ImportBrokerage.xlsx
@@ -423,21 +423,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="L11" sqref="L11"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="N12" sqref="N12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="25.625" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8.375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11.125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="7.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="29.125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="8.375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="19.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="26.125" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="12.375" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="10.25" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="12.625" bestFit="1" customWidth="1"/>
@@ -447,10 +446,10 @@
     <col min="16" max="16" width="14.125" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="17.125" bestFit="1" customWidth="1"/>
     <col min="18" max="18" width="13" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="7.625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="9.375" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="18.375" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="3.75" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="3.375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="14.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.2">
